--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220406.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="277">
   <si>
     <t>사이트</t>
   </si>
@@ -822,6 +822,9 @@
   </si>
   <si>
     <t>Jellyfish</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>아워즈</t>
@@ -3013,6 +3016,12 @@
       <c r="F70" t="s">
         <v>214</v>
       </c>
+      <c r="G70" t="s">
+        <v>269</v>
+      </c>
+      <c r="H70" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
@@ -3086,7 +3095,7 @@
         <v>217</v>
       </c>
       <c r="G73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H73" t="s">
         <v>247</v>
@@ -3210,7 +3219,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H78" t="s">
         <v>247</v>
@@ -3392,7 +3401,7 @@
         <v>225</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H85" t="s">
         <v>247</v>
@@ -3418,7 +3427,7 @@
         <v>226</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H86" t="s">
         <v>247</v>
@@ -3470,7 +3479,7 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H88" t="s">
         <v>247</v>
@@ -3548,7 +3557,7 @@
         <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H91" t="s">
         <v>247</v>
@@ -3573,6 +3582,12 @@
       <c r="F92" t="s">
         <v>230</v>
       </c>
+      <c r="G92" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
@@ -3796,7 +3811,7 @@
         <v>238</v>
       </c>
       <c r="G101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H101" t="s">
         <v>247</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220406.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-06</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220406.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>EDAM</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>스윙</t>
@@ -1905,7 +1902,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H27" t="s">
         <v>247</v>
@@ -1957,7 +1954,7 @@
         <v>191</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
         <v>247</v>
@@ -1983,10 +1980,10 @@
         <v>192</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2087,7 +2084,7 @@
         <v>196</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H34" t="s">
         <v>247</v>
@@ -2139,7 +2136,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H36" t="s">
         <v>247</v>
@@ -2347,7 +2344,7 @@
         <v>201</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H44" t="s">
         <v>247</v>
@@ -2373,7 +2370,7 @@
         <v>202</v>
       </c>
       <c r="G45" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H45" t="s">
         <v>247</v>
@@ -2497,7 +2494,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H50" t="s">
         <v>247</v>
@@ -2549,7 +2546,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H52" t="s">
         <v>247</v>
@@ -2575,10 +2572,10 @@
         <v>205</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2679,7 +2676,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
         <v>247</v>
@@ -2705,7 +2702,7 @@
         <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H58" t="s">
         <v>247</v>
@@ -2757,10 +2754,10 @@
         <v>210</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2783,7 +2780,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H61" t="s">
         <v>247</v>
@@ -2809,10 +2806,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2835,7 +2832,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H63" t="s">
         <v>247</v>
@@ -2861,7 +2858,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H64" t="s">
         <v>247</v>
@@ -2887,10 +2884,10 @@
         <v>211</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2991,7 +2988,7 @@
         <v>213</v>
       </c>
       <c r="G69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H69" t="s">
         <v>247</v>
@@ -3017,7 +3014,7 @@
         <v>214</v>
       </c>
       <c r="G70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H70" t="s">
         <v>247</v>
@@ -3069,10 +3066,10 @@
         <v>216</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3095,7 +3092,7 @@
         <v>217</v>
       </c>
       <c r="G73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H73" t="s">
         <v>247</v>
@@ -3193,7 +3190,7 @@
         <v>192</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
         <v>247</v>
@@ -3219,7 +3216,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" t="s">
         <v>247</v>
@@ -3323,10 +3320,10 @@
         <v>222</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3401,7 +3398,7 @@
         <v>225</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H85" t="s">
         <v>247</v>
@@ -3427,7 +3424,7 @@
         <v>226</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H86" t="s">
         <v>247</v>
@@ -3479,7 +3476,7 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H88" t="s">
         <v>247</v>
@@ -3557,7 +3554,7 @@
         <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H91" t="s">
         <v>247</v>
@@ -3583,7 +3580,7 @@
         <v>230</v>
       </c>
       <c r="G92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
         <v>247</v>
@@ -3811,7 +3808,7 @@
         <v>238</v>
       </c>
       <c r="G101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H101" t="s">
         <v>247</v>
